--- a/Fotografi videografi.xlsx
+++ b/Fotografi videografi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>Sigma</t>
+  </si>
+  <si>
+    <t>FujiFilm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panasonic </t>
+  </si>
+  <si>
+    <t>All Brand</t>
+  </si>
+  <si>
+    <t>Brica</t>
+  </si>
+  <si>
+    <t>JVC</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>GoPro</t>
   </si>
 </sst>
 </file>
@@ -110,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,9 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:F30"/>
+  <dimension ref="C1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,7 +490,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3">
+      <c r="C3" s="3">
         <v>271</v>
       </c>
       <c r="D3" t="s">
@@ -468,7 +498,7 @@
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4">
+      <c r="C4" s="3">
         <v>684</v>
       </c>
       <c r="E4" t="s">
@@ -476,7 +506,7 @@
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5">
+      <c r="C5" s="3">
         <v>685</v>
       </c>
       <c r="E5" t="s">
@@ -484,7 +514,7 @@
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6">
+      <c r="C6" s="3">
         <v>686</v>
       </c>
       <c r="E6" t="s">
@@ -492,7 +522,7 @@
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7">
+      <c r="C7" s="3">
         <v>687</v>
       </c>
       <c r="E7" t="s">
@@ -500,7 +530,7 @@
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8">
+      <c r="C8" s="3">
         <v>688</v>
       </c>
       <c r="E8" t="s">
@@ -508,178 +538,348 @@
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9">
+      <c r="C9" s="4">
+        <v>274</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="4">
+        <v>378</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="4">
+        <v>351</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="4">
+        <v>379</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="4">
+        <v>380</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="4">
+        <v>381</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="4">
+        <v>382</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="4">
+        <v>383</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="4">
+        <v>683</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="3">
         <v>153</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10">
+    <row r="19" spans="3:6">
+      <c r="C19" s="3">
         <v>631</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11">
+    <row r="20" spans="3:6">
+      <c r="C20" s="3">
         <v>692</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="C12">
+    <row r="21" spans="3:6">
+      <c r="C21" s="3">
         <v>693</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="C13">
+    <row r="22" spans="3:6">
+      <c r="C22" s="3">
         <v>694</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="C14">
+    <row r="23" spans="3:6">
+      <c r="C23" s="4">
+        <v>385</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="4">
+        <v>384</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="4">
+        <v>386</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="4">
+        <v>387</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="4">
+        <v>388</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="4">
+        <v>349</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="4">
+        <v>696</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="4">
+        <v>690</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="3">
         <v>390</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
-      <c r="C15">
+    <row r="32" spans="3:6">
+      <c r="C32" s="3">
         <v>391</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="C16">
+    <row r="33" spans="3:5">
+      <c r="C33" s="3">
         <v>393</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
-      <c r="C17">
+    <row r="34" spans="3:5">
+      <c r="C34" s="3">
         <v>708</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
-      <c r="C18">
+    <row r="35" spans="3:5">
+      <c r="C35" s="3">
         <v>709</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19">
+    <row r="36" spans="3:5">
+      <c r="C36" s="3">
         <v>396</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20">
+    <row r="37" spans="3:5">
+      <c r="C37" s="3">
         <v>394</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21">
+    <row r="38" spans="3:5">
+      <c r="C38" s="3">
         <v>395</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22">
+    <row r="39" spans="3:5">
+      <c r="C39" s="3">
         <v>716</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23">
+    <row r="40" spans="3:5">
+      <c r="C40" s="3">
         <v>397</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="C24">
+    <row r="41" spans="3:5">
+      <c r="C41" s="3">
         <v>715</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
-      <c r="C25">
+    <row r="42" spans="3:5">
+      <c r="C42" s="3">
         <v>695</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:5">
-      <c r="C26">
+    <row r="43" spans="3:5">
+      <c r="C43" s="3">
         <v>723</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:5">
-      <c r="C27">
+    <row r="44" spans="3:5">
+      <c r="C44" s="3">
         <v>718</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28">
+    <row r="45" spans="3:5">
+      <c r="C45" s="3">
         <v>724</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:5">
-      <c r="C29">
+    <row r="46" spans="3:5">
+      <c r="C46" s="3">
         <v>721</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30">
+    <row r="47" spans="3:5">
+      <c r="C47" s="3">
         <v>720</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E47" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Fotografi videografi.xlsx
+++ b/Fotografi videografi.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="20385" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Fotografi videografi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -28,70 +28,70 @@
     <t>Kamera Digital</t>
   </si>
   <si>
+    <t>Kamera DSLR</t>
+  </si>
+  <si>
+    <t>Kamera Mirrorless</t>
+  </si>
+  <si>
+    <t>Kamera Pocket</t>
+  </si>
+  <si>
+    <t>Kamera Prosumer</t>
+  </si>
+  <si>
+    <t>Kamera Waterproof</t>
+  </si>
+  <si>
     <t>Video Camcorder</t>
   </si>
   <si>
+    <t>Action Camcorder</t>
+  </si>
+  <si>
+    <t>Personal Camcorder</t>
+  </si>
+  <si>
+    <t>Profesional Camcorder</t>
+  </si>
+  <si>
+    <t>Semi Pro Camcorder</t>
+  </si>
+  <si>
     <t>Lensa Kamera</t>
   </si>
   <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Nikon</t>
+  </si>
+  <si>
+    <t>Fujifilm</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Pentax</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Samyang</t>
+  </si>
+  <si>
+    <t>Tamron</t>
+  </si>
+  <si>
+    <t>Lensbaby</t>
+  </si>
+  <si>
     <t>Flash Kamera</t>
-  </si>
-  <si>
-    <t>Kamera DSLR</t>
-  </si>
-  <si>
-    <t>Kamera Mirrorless</t>
-  </si>
-  <si>
-    <t>Kamera Pocket</t>
-  </si>
-  <si>
-    <t>Kamera Prosumer</t>
-  </si>
-  <si>
-    <t>Kamera Waterproof</t>
-  </si>
-  <si>
-    <t>Action Camcorder</t>
-  </si>
-  <si>
-    <t>Personal Camcorder</t>
-  </si>
-  <si>
-    <t>Profesional Camcorder</t>
-  </si>
-  <si>
-    <t>Semi Pro Camcorder</t>
-  </si>
-  <si>
-    <t>Canon</t>
-  </si>
-  <si>
-    <t>Nikon</t>
-  </si>
-  <si>
-    <t>Fujifilm</t>
-  </si>
-  <si>
-    <t>Olympus</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
-    <t>Pentax</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Samyang</t>
-  </si>
-  <si>
-    <t>Tamron</t>
-  </si>
-  <si>
-    <t>Lensbaby</t>
   </si>
   <si>
     <t>Sigma</t>
@@ -101,16 +101,173 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +280,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,19 +475,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="11" builtinId="38"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="13" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="14" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="21" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="24" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Good" xfId="30" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="34" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="36" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="37" builtinId="35"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="39" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="40" builtinId="53"/>
+    <cellStyle name="Currency" xfId="41" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -153,7 +785,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4D4D4D"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -432,16 +1064,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="3:6">
+    <row r="1" spans="3:4">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +1092,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="3:6">
+    <row r="3" spans="3:4">
       <c r="C3">
         <v>271</v>
       </c>
@@ -467,108 +1100,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:5">
       <c r="C4">
         <v>684</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="C5">
         <v>685</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
       <c r="C6">
         <v>686</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
       <c r="C7">
         <v>687</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
       <c r="C8">
         <v>688</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
       <c r="C9">
         <v>153</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
       <c r="C10">
-        <v>631</v>
+        <v>691</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>692</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
       <c r="C12">
         <v>693</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
       <c r="C13">
         <v>694</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
       <c r="C14">
         <v>390</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
       <c r="C15">
         <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
       <c r="C16">
         <v>393</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -576,7 +1209,7 @@
         <v>708</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -584,7 +1217,7 @@
         <v>709</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -592,7 +1225,7 @@
         <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:5">
@@ -600,7 +1233,7 @@
         <v>394</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="3:5">
@@ -608,7 +1241,7 @@
         <v>395</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:5">
@@ -616,7 +1249,7 @@
         <v>716</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:5">
@@ -624,7 +1257,7 @@
         <v>397</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="3:5">
@@ -632,15 +1265,15 @@
         <v>715</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
       <c r="C25">
         <v>695</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="3:5">
@@ -648,7 +1281,7 @@
         <v>723</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:5">
@@ -656,7 +1289,7 @@
         <v>718</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="3:5">
@@ -664,7 +1297,7 @@
         <v>724</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -672,7 +1305,7 @@
         <v>721</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -684,7 +1317,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>